--- a/it.xlsx
+++ b/it.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0295C7-FD55-48CA-85BE-A04ACA0C09E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A01360-02A4-4856-B506-B44393AA735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="280">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -4140,6 +4140,71 @@
   </si>
   <si>
     <t>git branch feature1</t>
+  </si>
+  <si>
+    <t>git push --set-upstream origin tinhtong</t>
+  </si>
+  <si>
+    <r>
+      <t>Push lên nhánh m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sau khi merge xong, nếu không cần nhánh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tinhtong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nữa:</t>
+    </r>
+  </si>
+  <si>
+    <t>git branch -d tinhtong</t>
+  </si>
+  <si>
+    <t>Nếu nhánh đã push lên GitHub, xóa remote branch:</t>
+  </si>
+  <si>
+    <t>git push origin --delete tinhtong</t>
   </si>
 </sst>
 </file>
@@ -5578,10 +5643,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD07F6C-4312-41FC-B64F-9B6B76CD06A6}">
-  <dimension ref="B2:Q87"/>
+  <dimension ref="B2:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5960,57 +6025,53 @@
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" ht="39">
-      <c r="B75" s="11" t="s">
-        <v>258</v>
+      <c r="B73" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="3" t="s">
-        <v>259</v>
+      <c r="B76" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="39">
+      <c r="B83" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="9" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="86" spans="2:2">
@@ -6018,6 +6079,40 @@
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="3" t="s">
         <v>265</v>
       </c>
     </row>

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A01360-02A4-4856-B506-B44393AA735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168B03D-874D-4B98-8CCE-6E6B4EEB7D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="304">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -4205,13 +4205,825 @@
   </si>
   <si>
     <t>git push origin --delete tinhtong</t>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộp nhánh dùng git rebase</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git rebase main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git rebase bugFix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dịch chuyển tham chiếu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git checkout bugFix^</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git branch -f main HEAD~3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git checkout HEAD^</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git branch -f main C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>di chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n branch main t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i C6</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git branch -f bugFix HEAD^</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>di chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n branch bugFix t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trí tên HEAD</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hoàn tác thay đ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i trong git</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git reset HEAD~1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git revert HEAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>quay l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i HEAD phía trên, nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commit đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c hiên</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>chia s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẻ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i khác b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng 1 branch khác</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git cherry-pick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>coppy hàng lo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t commit xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> trí hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n(HEAD)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git cherry-pick c2 c4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git cherry-pick c3 c4 c7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Git rebase t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng tác</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>khi không rõ mình c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng commit nào thì dùng rebase</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>khi rõ ràng nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng commit c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t thì s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng cherry-pick</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git rebase -i HEAD~4</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4347,6 +5159,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4368,7 +5195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4399,6 +5226,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4499,6 +5329,451 @@
         <a:xfrm>
           <a:off x="5532120" y="20093940"/>
           <a:ext cx="8245555" cy="5128704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57366</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F517380B-5D95-3DDC-2D94-D0FBAE55DE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486776" y="13131165"/>
+          <a:ext cx="5564720" cy="2870835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>211211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB04E891-8B8D-5962-F33A-862094DC9BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="15601950"/>
+          <a:ext cx="1019175" cy="1354211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>498789</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3CA767-37C2-ED5A-55D2-1AE3FF8C8263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667251" y="15601950"/>
+          <a:ext cx="1165538" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598171</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16094</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87897C20-E15B-9BC3-1506-07D408DEE883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5932171" y="15521940"/>
+          <a:ext cx="2745958" cy="1680210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24766</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>10322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089AFC42-45DF-439A-C372-1C7B63BCCC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2691766" y="25298400"/>
+          <a:ext cx="4356734" cy="2523017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>227437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D71E80-E45F-46CF-8950-4FB73BB1BFAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="25298400"/>
+          <a:ext cx="5457825" cy="2284837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542381</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>180703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>557621</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>120077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5B4E28-37E7-1BA7-F577-7DA889B0126A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7209881" y="28510774"/>
+          <a:ext cx="5349240" cy="2252589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>154383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF51283-52DF-FFFF-80D9-2F2DDB89B3BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12722679" y="28493357"/>
+          <a:ext cx="5197929" cy="2304312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>637136</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>124178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>642546</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>13667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7720EE09-5E76-1943-D25D-5B2C7B82B5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360665" y="29954237"/>
+          <a:ext cx="5384234" cy="2354783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>7441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2594DDCE-A9CA-43B4-FC26-4292643D8B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7395883" y="32519471"/>
+          <a:ext cx="4975412" cy="2024499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5643,10 +6918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD07F6C-4312-41FC-B64F-9B6B76CD06A6}">
-  <dimension ref="B2:Q95"/>
+  <dimension ref="B2:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5996,116 +7271,122 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
+    <row r="65" spans="2:5">
+      <c r="B65" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="9" t="s">
+    <row r="73" spans="2:5">
+      <c r="B73" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="22.2">
-      <c r="B69" s="1" t="s">
+    <row r="74" spans="2:5" ht="22.2">
+      <c r="B74" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="9" t="s">
+    <row r="75" spans="2:5">
+      <c r="B75" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="10" t="s">
+    <row r="78" spans="2:5">
+      <c r="B78" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="9" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="9" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="39">
-      <c r="B83" s="11" t="s">
+    <row r="88" spans="2:2" ht="39">
+      <c r="B88" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="3" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="9" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="3" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="9" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" s="9" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="94" spans="2:2">
@@ -6113,12 +7394,130 @@
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="3" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="E104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="E105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+      <c r="E121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" t="s">
+        <v>293</v>
+      </c>
+      <c r="E123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="E127" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="E141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E142" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168B03D-874D-4B98-8CCE-6E6B4EEB7D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE71BBE3-53FE-4D54-A4E2-C0A2CA3186C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="316">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -5016,6 +5016,248 @@
   </si>
   <si>
     <t>git rebase -i HEAD~4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng cb</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>chuyên c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vk con</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kĩ năng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h zan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zan 1 tháng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n zan</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>đi l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỡ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng X?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nenshuu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5258,9 +5500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>221638</xdr:colOff>
+      <xdr:colOff>219733</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>84006</xdr:rowOff>
+      <xdr:rowOff>85911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5302,9 +5544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>366475</xdr:colOff>
+      <xdr:colOff>362665</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>129984</xdr:rowOff>
+      <xdr:rowOff>133794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6050,8 +6292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6297,35 +6539,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B58131-D9DD-431F-8B2A-BF3ADE3E3655}">
-  <dimension ref="D2:E15"/>
+  <dimension ref="C2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:5">
+    <row r="2" spans="3:5">
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
       <c r="D2">
         <v>30.2</v>
       </c>
     </row>
-    <row r="3" spans="4:5">
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:5">
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
       <c r="D6">
         <f>SUM(D2:D5)</f>
         <v>34.200000000000003</v>
@@ -6335,17 +6593,26 @@
         <v>410.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
       <c r="D8">
         <v>0.23</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
       <c r="D9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
       <c r="D10">
         <f>D9*D8</f>
         <v>4.6000000000000005</v>
@@ -6355,25 +6622,46 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <f>D11*12</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
       <c r="D12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>314</v>
+      </c>
       <c r="D13">
         <f>D12*D2</f>
-        <v>135.9</v>
+        <v>120.8</v>
       </c>
       <c r="E13">
         <f>D13</f>
-        <v>135.9</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
       <c r="E15">
         <f>SUM(E6:E13)</f>
-        <v>601.5</v>
+        <v>588.79999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -6386,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63F367-96D4-4FC6-BE07-82B7559A4B3D}">
   <dimension ref="B2:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6920,8 +7208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD07F6C-4312-41FC-B64F-9B6B76CD06A6}">
   <dimension ref="B2:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7525,7 +7813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16115F5D-33DC-449F-A466-E03D43F3AD1B}">
   <dimension ref="B2:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE71BBE3-53FE-4D54-A4E2-C0A2CA3186C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2332828-2671-45E5-BCC3-9D50DFFE907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="git" sheetId="4" r:id="rId4"/>
-    <sheet name="Sourcetree" sheetId="5" r:id="rId5"/>
+    <sheet name="dự án" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="git" sheetId="4" r:id="rId5"/>
+    <sheet name="Sourcetree" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="462">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -5140,32 +5141,6 @@
   </si>
   <si>
     <r>
-      <t>đi l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>th</t>
     </r>
     <r>
@@ -5259,13 +5234,1044 @@
   <si>
     <t>nenshuu</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐI L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thường thì họ sẽ ohir mấy cái mindset quản lý dự án.</t>
+  </si>
+  <si>
+    <t>làm sao để đảm bảo deadline</t>
+  </si>
+  <si>
+    <t>Tổng Hợp Các Câu Hỏi Phỏng Vấn C++ Và Gợi Ý Trả Lời</t>
+  </si>
+  <si>
+    <t>Tổng hợp những câu hỏi phỏng vấn về C++ | thanhnamnguyen.dev</t>
+  </si>
+  <si>
+    <t>khách hàng: TEL (Tokyo Electron), cơ sở Yamanashi</t>
+  </si>
+  <si>
+    <t>Japanese follows Vietnamese.</t>
+  </si>
+  <si>
+    <t>Must to have:</t>
+  </si>
+  <si>
+    <t>- Kinh nghiệm sâu rộng về phát triển phần mềm( có kinh nghiệm về ngôn ngữ lập trình C/C++, embedded là 1 lợi thế).</t>
+  </si>
+  <si>
+    <t>- Hiểu sâu sắc về các nguyên tắc lập trình hướng đối tượng (OOP)</t>
+  </si>
+  <si>
+    <t>- Thành thạo các công cụ và môi trường phát triển phần mềm (ví dụ: Visual Studio, GCC)</t>
+  </si>
+  <si>
+    <t>- Kinh nghiệm tốt về các tool quản lý code (ví dụ: Git)</t>
+  </si>
+  <si>
+    <t>Nice to have:</t>
+  </si>
+  <si>
+    <t>- Kiến thức chuyên sâu về các phương pháp phát triển phần mềm (ví dụ: Agile, Scrum)</t>
+  </si>
+  <si>
+    <t>- Hiểu rõ về lập trình mạng, đa luồng và quản lý bộ nhớ trong C++ là một lợi thế.</t>
+  </si>
+  <si>
+    <t>- Có kinh nghiệm về phát triển đa nền tảng là một lợi thế</t>
+  </si>
+  <si>
+    <t>(Có thể 1 bạn JP ngon và Tech k nhất thiết là C++)</t>
+  </si>
+  <si>
+    <t>đia chỉ KH :〒407-0003 山梨県韮崎市藤井町北下條２３８１−１</t>
+  </si>
+  <si>
+    <t>hoặc là nhận đầu việc từ KH thì hướng tiếp cận ntn.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Quản lý dự án</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là việc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lên kế hoạch, tổ chức, theo dõi và hoàn thành</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> một công việc có mục tiêu rõ ràng, trong giới hạn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thời gian – chi phí – chất lượng</t>
+    </r>
+  </si>
+  <si>
+    <t>Tam giác quản lý dự án</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Scope (Phạm vi công việc)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – làm cái gì</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Time (Thời gian)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – bao lâu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Cost (Chi phí)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – tốn bao nhiêu</t>
+    </r>
+  </si>
+  <si>
+    <t>II. Chu kỳ của một dự án (Project Life Cycle)</t>
+  </si>
+  <si>
+    <t>1. Khởi động (Initiation)</t>
+  </si>
+  <si>
+    <t>Xác định mục tiêu, phạm vi, người liên quan (stakeholders)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viết </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Charter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (tài liệu khởi động dự án)</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Lập kế hoạch (Planning)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xây </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WBS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Work Breakdown Structure) – chia nhỏ công việc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lập tiến độ (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gantt Chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lên ngân sách, rủi ro, nhân sự, truyền thông, chất lượng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tạo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Management Plan</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Thực hiện (Execution)</t>
+  </si>
+  <si>
+    <t>Triển khai theo kế hoạch</t>
+  </si>
+  <si>
+    <t>Phân công, điều phối nhóm, họp định kỳ, báo cáo tiến độ</t>
+  </si>
+  <si>
+    <t>4. Giám sát và kiểm soát (Monitoring &amp; Controlling)</t>
+  </si>
+  <si>
+    <t>Theo dõi tiến độ, ngân sách</t>
+  </si>
+  <si>
+    <t>Kiểm tra chất lượng, thay đổi, rủi ro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sử dụng công cụ như </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Earned Value Management</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Kết thúc (Closing)</t>
+  </si>
+  <si>
+    <t>Nghiệm thu, bàn giao sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <t>Rút kinh nghiệm (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lesson Learned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Giải thể đội dự án</t>
+  </si>
+  <si>
+    <t>như khi vấn đề xẩy ra thì xử lý ntn.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xử lý vấn đề khi xảy ra trong dự án</t>
+  </si>
+  <si>
+    <r>
+      <t>Kỹ thuật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bug, lỗi thiết kế, trễ tiến độ code, v.v.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Con người</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (thành viên bất đồng, thiếu trách nhiệm, nghỉ giữa chừng)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quản lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (phạm vi bị thay đổi, thiếu tài nguyên, yêu cầu khách hàng không rõ ràng)</t>
+    </r>
+  </si>
+  <si>
+    <t>“Không giấu vấn đề – nhận diện sớm – phân tích nguyên nhân – xử lý có hệ thống.”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quy trình chuẩn gọi là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issue Management Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, gồm 5 bước:</t>
+    </r>
+  </si>
+  <si>
+    <t>1️⃣ Phát hiện vấn đề (Identify the Issue)</t>
+  </si>
+  <si>
+    <t>Ai cũng có thể phát hiện (dev, tester, PM…).</t>
+  </si>
+  <si>
+    <t>Ghi nhận ngay khi thấy: bug, trễ task, lỗi logic, thiếu thông tin, v.v.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issue Log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (sổ ghi vấn đề) hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GitHub Issues / Trello card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để ghi lại.</t>
+    </r>
+  </si>
+  <si>
+    <t>2️⃣ Phân loại &amp; Ưu tiên (Classify &amp; Prioritize)</t>
+  </si>
+  <si>
+    <t>Loại vấn đề</t>
+  </si>
+  <si>
+    <t>Ví dụ</t>
+  </si>
+  <si>
+    <t>Mức độ</t>
+  </si>
+  <si>
+    <t>Kỹ thuật</t>
+  </si>
+  <si>
+    <t>Lỗi logic, bug, lỗi biên dịch</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Tiến độ</t>
+  </si>
+  <si>
+    <t>Trễ 2 ngày so với kế hoạch</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Không rõ yêu cầu khách hàng</t>
+  </si>
+  <si>
+    <t>Con người</t>
+  </si>
+  <si>
+    <t>Thành viên nghỉ, mâu thuẫn nhóm</t>
+  </si>
+  <si>
+    <t>Trung bình – Cao</t>
+  </si>
+  <si>
+    <t>3️⃣ Phân tích nguyên nhân gốc (Root Cause Analysis)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không vội sửa — phải hiểu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“tại sao lỗi xảy ra”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 Whys (Hỏi 5 lần tại sao)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fishbone Diagram (xương cá)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để tìm nguyên nhân theo nhóm:</t>
+    </r>
+  </si>
+  <si>
+    <t>Con người (Man)</t>
+  </si>
+  <si>
+    <t>Quy trình (Method)</t>
+  </si>
+  <si>
+    <t>Công cụ (Machine)</t>
+  </si>
+  <si>
+    <t>Vật liệu / dữ liệu (Material)</t>
+  </si>
+  <si>
+    <t>Môi trường (Environment)</t>
+  </si>
+  <si>
+    <t>4️⃣ Đề xuất &amp; thực hiện giải pháp (Develop &amp; Implement Solution)</t>
+  </si>
+  <si>
+    <t>Sau khi biết nguyên nhân, PM sẽ:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Họp ngắn để chọn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cách xử lý tối ưu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giao </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>người chịu trách nhiệm (Assignee)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rõ ràng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghi lại trong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issue Log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: cách xử lý, deadline.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nếu cần, cập nhật lại kế hoạch dự án (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>5️⃣ Theo dõi &amp; phòng ngừa tái diễn (Monitor &amp; Prevent Recurrence)</t>
+  </si>
+  <si>
+    <t>PHÁT HIỆN  →  PHÂN LOẠI  →  PHÂN TÍCH  →  GIẢI PHÁP  →  PHÒNG NGỪA</t>
+  </si>
+  <si>
+    <t>(Detect)       (Prioritize)   (Analyze)      (Fix)          (Prevent)</t>
+  </si>
+  <si>
+    <t>làm sao để đảm bảo deadline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trước khi nói cách giữ, ta phải biết vì sao thường “vỡ kế hoạch”:</t>
+  </si>
+  <si>
+    <t>Nguyên nhân phổ biến</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>❌ Ước lượng sai khối lượng</t>
+  </si>
+  <si>
+    <t>Tưởng dễ, nhưng code lâu hơn dự kiến</t>
+  </si>
+  <si>
+    <t>❌ Thiếu kế hoạch chi tiết</t>
+  </si>
+  <si>
+    <t>Không có timeline, không chia nhỏ task</t>
+  </si>
+  <si>
+    <t>❌ Thiếu theo dõi tiến độ</t>
+  </si>
+  <si>
+    <t>Không kiểm tra mỗi ngày</t>
+  </si>
+  <si>
+    <t>❌ Quản lý thay đổi kém</t>
+  </si>
+  <si>
+    <t>Thêm tính năng giữa chừng</t>
+  </si>
+  <si>
+    <t>❌ Giao tiếp kém</t>
+  </si>
+  <si>
+    <t>Thành viên không báo sớm khi gặp khó</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Muốn giữ deadline → phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phát hiện sớm dấu hiệu chậm trễ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1️⃣ Xác định phạm vi rõ ràng (Scope Clarity)</t>
+  </si>
+  <si>
+    <t>“Không thể hoàn thành đúng hạn nếu không biết mình phải làm gì.”</t>
+  </si>
+  <si>
+    <t>2️⃣ Chia nhỏ công việc – WBS (Work Breakdown Structure)</t>
+  </si>
+  <si>
+    <t>“Deadline tổng thì khó giữ, nhưng từng task nhỏ thì có thể kiểm soát.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Phân tích yêu cầu – 1 ngày  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Thiết kế class diagram – 1 ngày  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Viết class Student – 1 ngày  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Viết class Database – 2 ngày  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Viết main menu – 1 ngày  </t>
+  </si>
+  <si>
+    <t>6. Test &amp; debug – 2 ngày</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tổng hợp thành </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timeline rõ ràng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Gantt chart).</t>
+    </r>
+  </si>
+  <si>
+    <t>3️⃣ Dự phòng rủi ro (Buffer Time)</t>
+  </si>
+  <si>
+    <t>“Luôn có thứ sẽ đi sai – nên hãy chuẩn bị trước.”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10–20% thời gian dự phòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho mỗi giai đoạn.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dự phòng cho các rủi ro: lỗi code, thiếu người, thay đổi yêu cầu.</t>
+  </si>
+  <si>
+    <t>4️⃣ Theo dõi tiến độ hằng ngày (Daily Tracking)</t>
+  </si>
+  <si>
+    <t>“Thành công = phát hiện sớm sai lệch.”</t>
+  </si>
+  <si>
+    <t>Cuối mỗi ngày, cập nhật task: Đang làm / Hoàn thành / Trễ.</t>
+  </si>
+  <si>
+    <t>Dùng Trello, Notion hoặc Excel để theo dõi.</t>
+  </si>
+  <si>
+    <t>PM hoặc bản thân bạn nên tự hỏi:</t>
+  </si>
+  <si>
+    <t>Hôm nay hoàn thành được gì?</t>
+  </si>
+  <si>
+    <t>Có vướng mắc gì không?</t>
+  </si>
+  <si>
+    <t>Cần hỗ trợ ở đâu?</t>
+  </si>
+  <si>
+    <t>5️⃣ Giao tiếp và báo cáo sớm (Early Communication)</t>
+  </si>
+  <si>
+    <t>“Báo sớm 1 ngày cứu cả tuần.”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu thấy trễ → báo ngay, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đừng im lặng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>PM hoặc nhóm sẽ hỗ trợ, đổi thứ tự task, hoặc giảm phạm vi.</t>
+  </si>
+  <si>
+    <t>Tránh để “nước đến chân mới nhảy”.</t>
+  </si>
+  <si>
+    <t>6️⃣ Kiểm soát thay đổi (Change Control)</t>
+  </si>
+  <si>
+    <t>“Deadline chết vì khách hàng hoặc team tự thêm tính năng.”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mọi yêu cầu mới phải được </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đánh giá lại tác động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Thêm bao nhiêu công việc?</t>
+  </si>
+  <si>
+    <t>Có thể hoàn thành trong thời gian còn lại không?</t>
+  </si>
+  <si>
+    <t>Nếu không → lùi deadline hoặc bỏ bớt tính năng khác.</t>
+  </si>
+  <si>
+    <t>7️⃣ Đánh giá tiến độ theo dữ liệu (Progress Tracking Metrics)</t>
+  </si>
+  <si>
+    <t>“Không đo thì không quản được.”</t>
+  </si>
+  <si>
+    <t>Team bị chậm 2 ngày</t>
+  </si>
+  <si>
+    <t>Cắt bớt chức năng phụ, dồn người hỗ trợ module chính</t>
+  </si>
+  <si>
+    <t>Dev kẹt bug quá lâu</t>
+  </si>
+  <si>
+    <t>Cho người khác hỗ trợ, tổ chức code review</t>
+  </si>
+  <si>
+    <t>Yêu cầu khách hàng thay đổi</t>
+  </si>
+  <si>
+    <t>Làm Change Request, điều chỉnh timeline chính thức</t>
+  </si>
+  <si>
+    <t>Gần deadline mà còn việc</t>
+  </si>
+  <si>
+    <t>Làm bản demo trước, hoàn thiện sau khi khách xác nhận</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5416,6 +6422,29 @@
       <family val="3"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5434,10 +6463,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5472,8 +6502,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6541,11 +7586,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B58131-D9DD-431F-8B2A-BF3ADE3E3655}">
   <dimension ref="C2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
@@ -6553,7 +7600,7 @@
         <v>304</v>
       </c>
       <c r="D2">
-        <v>30.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="3:5">
@@ -6582,86 +7629,82 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
         <v>308</v>
       </c>
-      <c r="D6">
-        <f>SUM(D2:D5)</f>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="E6">
-        <f>D6*12</f>
+      <c r="E7">
+        <f>D7*12</f>
         <v>410.40000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8">
-        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="3:5">
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10">
-        <f>D9*D8</f>
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="E10">
-        <f>D10*12</f>
-        <v>55.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <f>D10*D9</f>
+        <v>2.3000000000000003</v>
       </c>
       <c r="E11">
         <f>D11*12</f>
-        <v>2.4000000000000004</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D13">
         <f>D12*D2</f>
-        <v>120.8</v>
+        <v>135</v>
       </c>
       <c r="E13">
         <f>D13</f>
-        <v>120.8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="3:5">
       <c r="C15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15">
-        <f>SUM(E6:E13)</f>
-        <v>588.79999999999995</v>
+        <f>SUM(E7:E13)</f>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -6671,6 +7714,731 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4A7C1-689F-4704-A22D-73BAC15C2AC8}">
+  <dimension ref="B2:F151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="22.796875" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="30.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="22.2">
+      <c r="C29" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="28.8">
+      <c r="C34" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="22.2">
+      <c r="C66" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="D67" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="D68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="D69" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="D71" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="D72" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="D73" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="D74" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="D75" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="D78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="D79" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="D80" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="D81" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="D82" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="D83" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="D84" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="D85" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="D87" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="D88" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="D89" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="D90" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="D91" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="C102" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="36">
+      <c r="C103" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="36">
+      <c r="C104" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="C105" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="C106" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="36">
+      <c r="C107" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="C111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="D112" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="D114" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="D115" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="D116" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="D117" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="D118" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="D119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="D120" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="D121" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="D123" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="D124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="D125" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="D127" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="D128" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="D129" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="D130" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="D131" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="D132" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="D133" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="D135" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="D136" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="D137" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="D138" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4">
+      <c r="C139" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="D140" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="D141" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="D142" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="D143" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="D144" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="D146" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" ht="36">
+      <c r="C148" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" ht="36">
+      <c r="C149" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" ht="36">
+      <c r="C150" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" ht="36">
+      <c r="C151" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="https://glints.com/vn/blog/cac-cau-hoi-phong-van-c/" xr:uid="{8AB4E65A-3EA4-4D2C-88D0-6CDA4E80692C}"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://www.thanhnamnguyen.dev/tai-lieu/phong-van/kien-thuc-nen-tang/cpp/" xr:uid="{5BC0004D-634D-4DAF-9EF0-7273201EBE0E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63F367-96D4-4FC6-BE07-82B7559A4B3D}">
   <dimension ref="B2:I114"/>
   <sheetViews>
@@ -7204,11 +8972,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD07F6C-4312-41FC-B64F-9B6B76CD06A6}">
   <dimension ref="B2:Q144"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -7809,7 +9577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16115F5D-33DC-449F-A466-E03D43F3AD1B}">
   <dimension ref="B2:B35"/>
   <sheetViews>

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2332828-2671-45E5-BCC3-9D50DFFE907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497DD5E5-4F19-4F29-A599-8125BC5B53D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="2964" windowWidth="21600" windowHeight="11100" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="465">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -6265,6 +6265,15 @@
   </si>
   <si>
     <t>Làm bản demo trước, hoàn thiện sau khi khách xác nhận</t>
+  </si>
+  <si>
+    <t>初めましてチュオーンと申します。今年33歳です。2014ハノイ国家大学を卒業してから日産入社して電源設計グループに配属され、約3年間主にALT,BAT設計担当しました。</t>
+  </si>
+  <si>
+    <t>去年の２月現在在籍中家製作所に入社して0からPLCを学習して半導体製造装置の設計、制御を担当しています。まだ短い間ですが、数百万から数千万まで３装置無事に設計が完了しました。</t>
+  </si>
+  <si>
+    <t>今後、新しい分野で難しいともんですが、早く成長で来るようにぜひ頑張りたいと思います。</t>
   </si>
 </sst>
 </file>
@@ -7337,7 +7346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -7715,9 +7724,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4A7C1-689F-4704-A22D-73BAC15C2AC8}">
-  <dimension ref="B2:F151"/>
+  <dimension ref="B2:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -7727,65 +7738,74 @@
     <col min="6" max="6" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:7">
       <c r="C2" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:7">
       <c r="C3" s="14" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="4" spans="3:3">
+      <c r="G3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:7">
       <c r="C5" s="14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="G5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
       <c r="C7" s="16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="8" spans="3:3">
+      <c r="G7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:7">
       <c r="C9" s="16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:7">
       <c r="C11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:7">
       <c r="C12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:7">
       <c r="C13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:7">
       <c r="C14" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:7">
       <c r="C15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:7">
       <c r="C16" t="s">
         <v>325</v>
       </c>
@@ -8442,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63F367-96D4-4FC6-BE07-82B7559A4B3D}">
   <dimension ref="B2:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497DD5E5-4F19-4F29-A599-8125BC5B53D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE4B99D-FBA7-4935-90F7-C1F2118EDB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="2964" windowWidth="21600" windowHeight="11100" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="dự án" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="git" sheetId="4" r:id="rId5"/>
-    <sheet name="Sourcetree" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="git" sheetId="4" r:id="rId6"/>
+    <sheet name="Sourcetree" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="513">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -6273,14 +6274,3374 @@
     <t>去年の２月現在在籍中家製作所に入社して0からPLCを学習して半導体製造装置の設計、制御を担当しています。まだ短い間ですが、数百万から数千万まで３装置無事に設計が完了しました。</t>
   </si>
   <si>
-    <t>今後、新しい分野で難しいともんですが、早く成長で来るようにぜひ頑張りたいと思います。</t>
+    <t>今回はねFPTジャパンに応募して新しい分野で難しいともんですが、早く成長で来るようにぜひ頑張りたいと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CAO AC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N AN TOÀN</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N DC VÀ  ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N VI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TRÌNH PLC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TRÌNH B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">M </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CÀI Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T CÁC THÔNG S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CHO CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TRÌNH</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T TRONG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I GIAN DUY TRÌ ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T KHÍ HE Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">M VÀO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP MAX, T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG HO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N THÍ NGHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U, K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T THÚC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CÁC GIÁ TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T QU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK.NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>NG DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CÁC THAO TÁC TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CÔNG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐÓNG M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VAN</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M HÚT CHÂN KHÔNG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M TURBO</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CÀI Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG, ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T CHO VAL ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T MÁY PHÁT ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GHI L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M TRA</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M KHO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG 10 L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T, </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O 1 Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> THI GHI L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I QUÁ TRÌNH DI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ễ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N RA TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C NGHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>VI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TRÌNH PLC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TRÌNH CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG TRÌNH CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Y TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> CÔNG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐÓNG M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MÁY HÚT CHÂN KHÔNG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N, KI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M SOÁT ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T KHÍ HE</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T CHÂN KHÔNG VÀ ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T KHÍ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CÁC THÔNG S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CÀI Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C ĐÓ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C THI TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TRÌNH THEO TU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DO KHÁCH HÀNG Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RA</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GHI L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T QU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTERLOCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N AN TOÀN</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALARM LIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>THI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ý T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG----THI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> CHI TI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T----VI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG TRÌNH----KI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>M TRA HO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG-----THUY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T MINH, BÀN GIAO</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>THI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ý T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯƠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>THAM GIA CÁC CU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I KHÁCH, NGHE YÊU C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U, XÁC NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N YÊU C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U, GI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I ĐÁP CÂU H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ỏ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I, Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> XU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LÀM BÁO GIÁ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6453,6 +9814,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7726,8 +11094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4A7C1-689F-4704-A22D-73BAC15C2AC8}">
   <dimension ref="B2:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7764,12 +11132,14 @@
         <v>463</v>
       </c>
     </row>
+    <row r="6" spans="3:7">
+      <c r="G6" t="s">
+        <v>464</v>
+      </c>
+    </row>
     <row r="7" spans="3:7">
       <c r="C7" s="16" t="s">
         <v>318</v>
-      </c>
-      <c r="G7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -8459,6 +11829,265 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F486C4D-EFA8-4CD6-8F00-B62FA22A8117}">
+  <dimension ref="C2:G72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="D5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="D6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="D19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="D20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="D21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="D22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="D25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="E26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="F27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="F28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="F29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="F30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="F31" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="F34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="F35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="F37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="F38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="F39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="F41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="F42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6">
+      <c r="F45" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="F46" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="F47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="F48" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="F49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="E51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="F52" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="E54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="E57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="F58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="F59" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="E62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6">
+      <c r="F63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="F64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="F65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="F66" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G70" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63F367-96D4-4FC6-BE07-82B7559A4B3D}">
   <dimension ref="B2:I114"/>
   <sheetViews>
@@ -8992,11 +12621,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD07F6C-4312-41FC-B64F-9B6B76CD06A6}">
   <dimension ref="B2:Q144"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -9597,7 +13226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16115F5D-33DC-449F-A466-E03D43F3AD1B}">
   <dimension ref="B2:B35"/>
   <sheetViews>

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE4B99D-FBA7-4935-90F7-C1F2118EDB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BEB970-253B-4CD0-BFCC-3EEC9D40A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet name="git" sheetId="4" r:id="rId6"/>
     <sheet name="Sourcetree" sheetId="5" r:id="rId7"/>
+    <sheet name="PRJ" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="559">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -9636,12 +9638,6191 @@
     <t>LÀM BÁO GIÁ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>giá link ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>giá khác: phí công tác, hotel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>giá thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>công l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p giáp, s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>THI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CHI TI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>THI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MÀN HÌNH THAO TÁC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>DANH SÁCH LINH KI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>→Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CÓ TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C THÌ C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N TÌM HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>U CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C NĂNG, CÁCH K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A CÁC UNIT, LINH KI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TÍNH T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N TIÊU TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N MAIN BREAKER,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I CÁC UNIT D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A VÀO L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N TIÊU TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I ĐA C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N CÁC FUSE, RELAY, MC,KÍCH TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C DÂY.. PHÙ H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A VÀO CÁC CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C NĂNG, L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CÁC UNIT C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A PLC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>VÍ D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ÁP SUÂT, L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG KHÍ, ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N ÁP,DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N, THÌ C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N CÓ B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> CHUY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I ANALOG SANG DIGITAL</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP, ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T, L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG THÌ PH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I CÓ B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> CHUY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I DIGITAL SANG ANALOG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N TÍN HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SENSOR… THÌ C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CÓ INPUT UINIT, HO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N RELAY… THÌ C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CÓ OUPUT UNIT</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>NGOÀI RA N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U CÓ NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG UNIT ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TRUY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N THÔNG NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ETHERNET HAY RS232 422 485 THÌ CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CÁC UNIT TRUY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N THÔNG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T NGU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N KHI CÓ V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAIDENATSUSHIKEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NGHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M KH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NĂNG CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N GAS</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG BAO G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M 1 MÁY PHÁT ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CAO ÁP -60KV</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N NÀY Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I 1 C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N GAS</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CÁC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG  NÀY S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG HÚT CHÂN KHÔNG, H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƠM KHÍ HE</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I SAO L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N KHÍ HE VÌ HE LÀ KHÍ TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, CÓ KH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả NĂ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>U ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N ÁP CAO, KHÔNG PH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG HÓA H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C GÂY CHÁY N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ổ.. TÍNH AN TOÀN CAO, TẠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>O MÔI TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG KHÔNG D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ĐO Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">N CHÍNH XÁC TRONG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HÚT CHÂN KHÔNG, HÚT CHÂN KHÔNG CAO, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NH---- N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P KHÍ HE KHOANG 40TORR---PHÓNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N -30KV T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1KV/S---N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N KHÔNG QUÁ 10μA THÌ TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C NGHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M OK, QUÁ THÌ NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>QUÁ TRÌNH PHÓNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẠI 2 LẦ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I THI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>THI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ễ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BAO G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M 2 MÁY HÚT CHÂN KHÔNG, 1 MÁY PHÁT ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP CAO, 1 VALE CÓ KH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NĂNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U KHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T, CÁC SENSOR Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O AN TOÀN,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 coulomb (1 C) = lượng điện tích mà dòng điện 1 ampe truyền trong 1 giây.</t>
+  </si>
+  <si>
+    <r>
+      <t>ĐO L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỢ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG TĨNH ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N(đi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n tích tích t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t ch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>KH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NĂNG HÚT C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A ESC(ElectroStatic Chuck)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C VÀ L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ƯỠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>HV K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I ESC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ESC K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I 1 M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH ĐO TRONG M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A 1 CON T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ĐO ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U VÀO VÀ Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U RA C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ DỰ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A THEO CÔNG TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> TÍNH Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NG TĨNH ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N TRÊN ESC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2 Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1 Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I ESC VÀ 1 Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I MÁY T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O DÒNG ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N CAO T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N 1000HZ ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP 1V</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ĐÓNG COVER--- N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T ESC--- HV ON 1500V--- N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T FG--- ĐO ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N ÁP 2 ĐÀU T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--- T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T FG--- ESC N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T--- B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T HV + ---- HV OFF --- Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A RA K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T QU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTR CHAMBER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>KI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M TRA NHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TRONG KHOANG CHAMBER</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG BAO G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M 2 CHAMBER MAIN VÀ SUB</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SUB CHAMBER DÙNG Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A VÀO VÀ L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y WAFER RA</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>QUAY B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG TAY Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A VÀO VÀ Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A RA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CÁC ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M ĐÍCH THÌ CÓ CÁC SENSOR Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N BI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T ĐÃ T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I ĐÍCH HAY CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>QUÁ TRÌNH Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A WAFER VÀO THÌ Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U TIÊN LÀ Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T LÊN 1 CÁNH TAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KHOANG SUB R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CÔNG QUAY CHO VÀO, KHI HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ĐÃ VÀO NÂNG 3PIN LÊN Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ỡ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WAFER SAU ĐÓ KÉO TAY ĐÒN RA, KHÓA L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3PIN XU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> HÚT CHÂN KHÔNG, X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KHÔNG KHÍ TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I, HO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C LÀ ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NH ÁP XU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A CHAMBER</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CHÊNH L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T GIÚP C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NH WAFER VÀO HTR</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>HÚT CHÂN KHÔNG SAU ĐÓ ĐI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NH THAY Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I ÁP SU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG KHÍ TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> N2 OR AR</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9820,6 +16001,50 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
       <charset val="163"/>
     </font>
   </fonts>
@@ -10449,6 +16674,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>210024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E079DAF-935F-9C9B-F0E6-4D72F8921F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="457200"/>
+          <a:ext cx="7323455" cy="5471634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>254023</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530E05C8-D286-1267-5A02-8A513856D0B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="457200"/>
+          <a:ext cx="7590178" cy="4557155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>292126</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>209945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE79B7A-DAB9-A204-8126-D5959DA22D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="5257800"/>
+          <a:ext cx="7628281" cy="4557155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>448061</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19417CDE-4326-B16B-41AD-A8BD033BB24A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17512392" y="462643"/>
+          <a:ext cx="7607324" cy="4559060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11094,7 +17500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4A7C1-689F-4704-A22D-73BAC15C2AC8}">
   <dimension ref="B2:G151"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -11830,254 +18236,339 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F486C4D-EFA8-4CD6-8F00-B62FA22A8117}">
-  <dimension ref="C2:G72"/>
+  <dimension ref="C2:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:5">
       <c r="C2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:5">
       <c r="C4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:5">
       <c r="D5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:5">
       <c r="D6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="E7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="E8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="D9" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
-      <c r="C18" t="s">
+    <row r="10" spans="3:5">
+      <c r="E10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="E11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="E12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="E13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="D16" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
-      <c r="D19" t="s">
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
-      <c r="D20" t="s">
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
-      <c r="D21" t="s">
+    <row r="20" spans="5:7">
+      <c r="F20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="F21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="D22" t="s">
+    <row r="23" spans="5:7">
+      <c r="F23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="G24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="G25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="G26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="G27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
-      <c r="C24" t="s">
+    <row r="29" spans="5:7">
+      <c r="F29" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
-      <c r="D25" t="s">
+    <row r="35" spans="3:6">
+      <c r="D35" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
-      <c r="E26" t="s">
+    <row r="36" spans="3:6">
+      <c r="E36" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
-      <c r="F27" t="s">
+    <row r="37" spans="3:6">
+      <c r="F37" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
-      <c r="F28" t="s">
+    <row r="38" spans="3:6">
+      <c r="F38" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
-      <c r="F29" t="s">
+    <row r="39" spans="3:6">
+      <c r="F39" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="F30" t="s">
+    <row r="40" spans="3:6">
+      <c r="F40" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
-      <c r="F31" t="s">
+    <row r="41" spans="3:6">
+      <c r="F41" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="5:6">
-      <c r="E33" t="s">
+    <row r="43" spans="3:6">
+      <c r="E43" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="5:6">
-      <c r="F34" t="s">
+    <row r="44" spans="3:6">
+      <c r="F44" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="5:6">
-      <c r="F35" t="s">
+    <row r="45" spans="3:6">
+      <c r="F45" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="5:6">
-      <c r="E36" t="s">
+    <row r="46" spans="3:6">
+      <c r="E46" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="5:6">
-      <c r="F37" t="s">
+    <row r="47" spans="3:6">
+      <c r="F47" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="5:6">
-      <c r="F38" t="s">
+    <row r="48" spans="3:6">
+      <c r="F48" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="5:6">
-      <c r="F39" t="s">
+    <row r="49" spans="5:6">
+      <c r="F49" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="5:6">
-      <c r="E40" t="s">
+    <row r="50" spans="5:6">
+      <c r="E50" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="5:6">
-      <c r="F41" t="s">
+    <row r="51" spans="5:6">
+      <c r="F51" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="5:6">
-      <c r="F42" t="s">
+    <row r="52" spans="5:6">
+      <c r="F52" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="44" spans="5:6">
-      <c r="E44" t="s">
+    <row r="54" spans="5:6">
+      <c r="E54" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="45" spans="5:6">
-      <c r="F45" t="s">
+    <row r="55" spans="5:6">
+      <c r="F55" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="5:6">
-      <c r="F46" t="s">
+    <row r="56" spans="5:6">
+      <c r="F56" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="5:6">
-      <c r="F47" t="s">
+    <row r="57" spans="5:6">
+      <c r="F57" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="48" spans="5:6">
-      <c r="F48" t="s">
+    <row r="58" spans="5:6">
+      <c r="F58" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
-      <c r="F49" t="s">
+    <row r="59" spans="5:6">
+      <c r="F59" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
-      <c r="E51" t="s">
+    <row r="61" spans="5:6">
+      <c r="E61" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
-      <c r="F52" t="s">
+    <row r="62" spans="5:6">
+      <c r="F62" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="4:6">
-      <c r="E54" t="s">
+    <row r="64" spans="5:6">
+      <c r="E64" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
-      <c r="D56" t="s">
+    <row r="66" spans="4:7">
+      <c r="D66" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
-      <c r="E57" t="s">
+    <row r="67" spans="4:7">
+      <c r="E67" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
-      <c r="F58" t="s">
+    <row r="68" spans="4:7">
+      <c r="F68" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="4:6">
-      <c r="F59" t="s">
+    <row r="69" spans="4:7">
+      <c r="F69" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
-      <c r="E62" t="s">
+    <row r="72" spans="4:7">
+      <c r="E72" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="63" spans="4:6">
-      <c r="F63" t="s">
+    <row r="73" spans="4:7">
+      <c r="F73" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="64" spans="4:6">
-      <c r="F64" t="s">
+    <row r="74" spans="4:7">
+      <c r="F74" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="5:7">
-      <c r="F65" t="s">
+    <row r="75" spans="4:7">
+      <c r="F75" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="5:7">
-      <c r="F66" t="s">
+    <row r="76" spans="4:7">
+      <c r="F76" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="5:7">
-      <c r="E68" t="s">
+    <row r="78" spans="4:7">
+      <c r="E78" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="70" spans="5:7">
-      <c r="E70" t="s">
+    <row r="80" spans="4:7">
+      <c r="E80" t="s">
         <v>506</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G80" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="5:7">
-      <c r="E72" t="s">
+    <row r="82" spans="5:5">
+      <c r="E82" t="s">
         <v>508</v>
       </c>
     </row>
@@ -12091,7 +18582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63F367-96D4-4FC6-BE07-82B7559A4B3D}">
   <dimension ref="B2:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -12625,7 +19116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD07F6C-4312-41FC-B64F-9B6B76CD06A6}">
   <dimension ref="B2:Q144"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -13231,7 +19722,7 @@
   <dimension ref="B2:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13410,4 +19901,368 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C5190-89F8-4312-8F7A-B6428DC7F9CB}">
+  <dimension ref="B2:I82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="C3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="D4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="E5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="E6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="E7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="E8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="F9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="E10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="E11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="E14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="E16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="G18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="G19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="G20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="G21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="G22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="G25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="G26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="G28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="G29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="G30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7">
+      <c r="G32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="G33" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="F35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="G36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="G37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="G38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="G39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="G40" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="F42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="G43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="F45" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="F48" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="G49" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="G50" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="G54" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="G55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="G56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="G57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" t="s">
+        <v>506</v>
+      </c>
+      <c r="H61" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="I65" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="C66" t="s">
+        <v>544</v>
+      </c>
+      <c r="H66" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="D67" t="s">
+        <v>546</v>
+      </c>
+      <c r="G67" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="D68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="D70" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="C75" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="D76" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="D77" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="D78" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="D79" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="D80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FB2870-6B7B-4CE2-97BE-5D2D9BA3C792}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/it.xlsx
+++ b/it.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BEB970-253B-4CD0-BFCC-3EEC9D40A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E01CD4-5CC4-44EF-8450-9232EA04B8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sourcetree" sheetId="5" r:id="rId7"/>
     <sheet name="PRJ" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="597">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -15817,12 +15818,242 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>自動試験</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作モニター</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開錠</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動試験中</t>
+    <rPh sb="0" eb="5">
+      <t>ジドウシケンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alarm：DP起動エラー</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BZ Stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験設定</t>
+    <rPh sb="0" eb="4">
+      <t>シケンセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>到着圧力</t>
+    <rPh sb="0" eb="4">
+      <t>トウチャクアツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力保持時間</t>
+    <rPh sb="0" eb="2">
+      <t>アツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ホジジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He導入圧力</t>
+    <rPh sb="2" eb="4">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HV到着電圧</t>
+    <rPh sb="2" eb="6">
+      <t>トウチャクデンアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HV印加速度</t>
+    <rPh sb="2" eb="4">
+      <t>インカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HVカットオフ電流</t>
+    <rPh sb="7" eb="9">
+      <t>デンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HV除電時間</t>
+    <rPh sb="2" eb="6">
+      <t>ジョデンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験回数</t>
+    <rPh sb="0" eb="4">
+      <t>シケンカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験モード</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効配管</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウハイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mTorr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Torr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kV/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>μA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査モニター</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HV電流</t>
+    <rPh sb="2" eb="4">
+      <t>デンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HV電圧</t>
+    <rPh sb="2" eb="4">
+      <t>デンアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16047,20 +16278,308 @@
       <family val="3"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -16069,7 +16588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -16117,6 +16636,94 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16855,6 +17462,2928 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>626918</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495990</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10636</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="グループ化 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E20EB6-EC0C-AA24-4FA1-1A3B179EF976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1975434" y="711216"/>
+          <a:ext cx="6521556" cy="3111325"/>
+          <a:chOff x="2651067" y="553143"/>
+          <a:chExt cx="6542690" cy="3115044"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="フローチャート: 照合 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1606F03-DD55-5BC3-9081-B85EDD6A7370}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2807277" y="1728355"/>
+            <a:ext cx="180109" cy="355022"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A91857-A8A4-1AF2-7DFB-0FF76149DFF4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2788227" y="713509"/>
+            <a:ext cx="246784" cy="631248"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E5FE05-76AF-C287-AF63-35409F5FFF14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2883477" y="1335232"/>
+            <a:ext cx="37234" cy="383598"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72EE5AB-1C53-ACBB-9685-474C0B184282}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2883477" y="2092902"/>
+            <a:ext cx="37234" cy="383598"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="フローチャート: 照合 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AE2E72-23C6-D79B-B476-E3B5BB6E386B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3135976" y="1728355"/>
+            <a:ext cx="186690" cy="351212"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F462BD-7127-CBD4-1973-D0F35D086C40}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3120736" y="713509"/>
+            <a:ext cx="243840" cy="629343"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE2215C-F75D-3C95-BD93-5C9621D15E6E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3212176" y="1331422"/>
+            <a:ext cx="38100" cy="385503"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8063F385-02E6-B3A3-E711-37C3B8DB3D29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3212176" y="2090997"/>
+            <a:ext cx="38100" cy="385503"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="フローチャート: 照合 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818C318A-399B-A12A-E8EC-D9A42770C238}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3471256" y="1728355"/>
+            <a:ext cx="184785" cy="355022"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C490D5A7-5754-67CF-FF48-813C3EE6926E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3452206" y="713509"/>
+            <a:ext cx="247650" cy="627438"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12366BD8-4346-E9ED-E36B-4184D361CBA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3547456" y="1335232"/>
+            <a:ext cx="38100" cy="379788"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25AA72C-0367-E32F-8676-3B0C091A85B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3547456" y="2089092"/>
+            <a:ext cx="38100" cy="387408"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="フローチャート: 照合 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322E7BDB-07F9-1C3B-E8AF-0C289D132E06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3767570" y="1739785"/>
+            <a:ext cx="182880" cy="351212"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD6B349-77DF-276F-8B0E-A176C20146FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3751291" y="724939"/>
+            <a:ext cx="244879" cy="625533"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66666B63-9E30-F984-5CA8-17FBDD1127EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3843770" y="1342852"/>
+            <a:ext cx="38100" cy="381693"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0B34F5-04A4-251E-8C4C-E57D634C20CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3843770" y="2098617"/>
+            <a:ext cx="38100" cy="389313"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="フローチャート: 照合 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5624D7-0400-C2AE-7D94-5FEE9F1A16EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4089515" y="1745500"/>
+            <a:ext cx="180975" cy="355022"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FD1BF1-02F9-0B2F-EE97-32D2F90F6C85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4078085" y="730654"/>
+            <a:ext cx="240030" cy="627784"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D8F8F1-5260-8D18-8130-CE8112EE8D2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165715" y="1352377"/>
+            <a:ext cx="38100" cy="383598"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D870665-A0E7-0264-9CBF-98DC51F0337F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165715" y="2110047"/>
+            <a:ext cx="38100" cy="383598"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="フローチャート: 照合 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F90D87A-AFB2-E1B4-1334-1E3868F8F6DF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4403840" y="1753120"/>
+            <a:ext cx="189115" cy="358832"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD796EC5-B082-509F-E7F5-371FEC6A44D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4388600" y="738274"/>
+            <a:ext cx="246265" cy="633499"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260EDF1E-48BB-60E9-6F6D-F132B9C0843E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4480040" y="1360343"/>
+            <a:ext cx="38100" cy="388967"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F6D0F7-3E81-C799-5062-2DD1E5D894C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4480040" y="2119572"/>
+            <a:ext cx="38100" cy="377883"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197BC958-F28C-5D66-980F-50DEDDE8BCC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2879667" y="2476500"/>
+            <a:ext cx="5815099" cy="47624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363C98B2-1CF9-0887-7A46-EA6869CA29CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2651067" y="553143"/>
+            <a:ext cx="2126673" cy="187036"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8384F745-99B5-D2F9-2D9C-F62175248B8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2651067" y="1230457"/>
+            <a:ext cx="2126673" cy="187036"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B5A931-0F84-5F06-3AB3-8E233307231B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4893945" y="2098617"/>
+            <a:ext cx="38100" cy="377883"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="テキスト ボックス 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831E9FF4-49D8-D33B-43C8-B04802F47350}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4663440" y="1633105"/>
+            <a:ext cx="765810" cy="242281"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>123.4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>Torr</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="楕円 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CBB68E-796B-DD34-D18B-1EB234459C35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4817745" y="1940156"/>
+            <a:ext cx="184785" cy="181321"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="楕円 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DE9D71-D49E-8A32-0CF1-F493709E092A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3958070" y="2907376"/>
+            <a:ext cx="192405" cy="190847"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B9165B-30D3-0037-DE46-A0A5F31F66D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4034270" y="2535555"/>
+            <a:ext cx="38100" cy="383251"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="テキスト ボックス 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC704123-8D51-44EE-D6B4-6287E4E1D087}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3627466" y="3159529"/>
+            <a:ext cx="911629" cy="232756"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>123.4m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>Torr</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="フローチャート: 照合 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB8C3EC-84D3-87D7-0CD1-6FA28E666FF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5637934" y="1735975"/>
+            <a:ext cx="182880" cy="355022"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD211230-6E40-49B2-A9E8-4D0245F1681A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5714134" y="2100522"/>
+            <a:ext cx="38100" cy="377883"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="テキスト ボックス 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3395A881-9675-3AD6-A390-32011F221834}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5483629" y="1404158"/>
+            <a:ext cx="537210" cy="246092"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>大気</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="テキスト ボックス 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A9D552-004A-8E16-2FB8-263087BF2555}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6980093" y="2306610"/>
+            <a:ext cx="865909" cy="337531"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>123.4Torr</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="テキスト ボックス 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA82036-D079-CAC3-32A9-FF0522653F37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7145827" y="2073852"/>
+            <a:ext cx="509674" cy="280382"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>PCV</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="フローチャート: 照合 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5808C5D3-B101-A952-EE58-F38C64F7B3AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6619875" y="2320118"/>
+            <a:ext cx="185131" cy="358140"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="フローチャート: 照合 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E86393-A6CF-FEB4-F26E-1D6360581788}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="8118764" y="2311979"/>
+            <a:ext cx="185131" cy="374419"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="テキスト ボックス 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B643895A-BE35-709F-8339-71495848F167}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8679407" y="2338994"/>
+            <a:ext cx="514350" cy="276571"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>He</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3E05F1-0D28-21C3-67F0-A70EF4F71401}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6397834" y="2537459"/>
+            <a:ext cx="47624" cy="983357"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="フローチャート: 照合 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5CB357-1F7C-16C8-D2F6-37CC73236E71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6330966" y="2686050"/>
+            <a:ext cx="190500" cy="337878"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2827D5-05A8-47C4-A919-ECE54081CEBD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4709159" y="2533650"/>
+            <a:ext cx="47624" cy="957695"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD277C34-D5C8-9049-7615-14FE9E5461E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4703446" y="3468485"/>
+            <a:ext cx="3582530" cy="45719"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="テキスト ボックス 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC4E703-F613-D744-D803-F219A421CAA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6934373" y="3329636"/>
+            <a:ext cx="618259" cy="338551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>DP</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="テキスト ボックス 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C085514-3FB1-D40F-767F-A72D00E746AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5349240" y="3332213"/>
+            <a:ext cx="604924" cy="334068"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>TMP</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="フローチャート: 照合 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6EFAEC-CF62-A7D1-C873-F98CEE9242EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6054080" y="3311421"/>
+            <a:ext cx="187923" cy="355369"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="フローチャート: 照合 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA162E41-03A8-0E4E-8359-112006BBA4E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5068253" y="3305609"/>
+            <a:ext cx="186690" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="テキスト ボックス 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADB8840-DEF1-CB53-F35A-083172948045}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8396240" y="3340391"/>
+            <a:ext cx="525026" cy="281401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>EXT</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>188594</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365745</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>212347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A54771-9D86-4341-B05A-A46C1DDDC83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8861947" y="3479315"/>
+          <a:ext cx="7576843" cy="4620292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>20730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>859044</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28125</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="117" name="グループ化 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053365FA-FA68-D32D-942A-57829F02B0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3755876" y="8107567"/>
+          <a:ext cx="1648946" cy="244624"/>
+          <a:chOff x="3182471" y="8075855"/>
+          <a:chExt cx="1650851" cy="229608"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="正方形/長方形 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86903E4-0791-C6C1-531E-3A87D805DBE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3182471" y="8079441"/>
+            <a:ext cx="268941" cy="224117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>１</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="正方形/長方形 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CD9656-FB5A-E35B-7409-1F5966FDAE52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3464523" y="8081346"/>
+            <a:ext cx="270846" cy="224117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="正方形/長方形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39366522-616A-6A47-103A-758B55BBDC11}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3742765" y="8081346"/>
+            <a:ext cx="268941" cy="224117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE41262E-5C85-916D-7470-26AC34705802}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4024817" y="8075855"/>
+            <a:ext cx="270846" cy="224117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="正方形/長方形 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350EC9B6-2D72-B10B-267C-901BF47982E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4291854" y="8075855"/>
+            <a:ext cx="274656" cy="224117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="正方形/長方形 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E792200-07FD-E8E2-18A5-69DF820D26E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4572001" y="8079665"/>
+            <a:ext cx="261321" cy="224117"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17365,6 +20894,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F716D66-29DD-4818-92BA-22DFCDB2AE79}">
+  <dimension ref="B2:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="4" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="10" width="11.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="D2" s="26">
+        <v>45940</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="26">
+        <v>45940</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="27" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D27" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42">
+        <v>10</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="21">
+        <v>15</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="21">
+        <v>40</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="4:10">
+      <c r="D31" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="21">
+        <v>30</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="D32" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="21">
+        <v>10</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="21">
+        <v>20</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="21">
+        <v>3</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D37" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B58131-D9DD-431F-8B2A-BF3ADE3E3655}">
   <dimension ref="C2:E15"/>
@@ -18231,6 +22040,7 @@
     <hyperlink ref="C9" r:id="rId2" display="https://www.thanhnamnguyen.dev/tai-lieu/phong-van/kien-thuc-nen-tang/cpp/" xr:uid="{5BC0004D-634D-4DAF-9EF0-7273201EBE0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -19907,7 +23717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C5190-89F8-4312-8F7A-B6428DC7F9CB}">
   <dimension ref="B2:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
@@ -20248,6 +24058,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20256,7 +24067,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E01CD4-5CC4-44EF-8450-9232EA04B8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA40490-DB9D-4C2B-8A04-DDBE8720A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="dự án" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="専門用語" sheetId="1" r:id="rId1"/>
+    <sheet name="見積" sheetId="3" r:id="rId2"/>
+    <sheet name="PRJ管理" sheetId="6" r:id="rId3"/>
+    <sheet name="流れ" sheetId="7" r:id="rId4"/>
+    <sheet name="OPP" sheetId="2" r:id="rId5"/>
     <sheet name="git" sheetId="4" r:id="rId6"/>
     <sheet name="Sourcetree" sheetId="5" r:id="rId7"/>
     <sheet name="PRJ" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="イメージ" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="601">
   <si>
     <t>オブジェクト指向</t>
     <phoneticPr fontId="1"/>
@@ -16046,6 +16046,25 @@
     <rPh sb="2" eb="4">
       <t>デンアツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-27.2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16324,7 +16343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -16445,19 +16464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -16514,21 +16520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -16553,15 +16544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -16583,12 +16565,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -16652,10 +16834,66 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16668,37 +16906,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -16707,22 +16915,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17475,7 +17710,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>495990</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>10636</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17491,7 +17726,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1975434" y="711216"/>
-          <a:ext cx="6521556" cy="3111325"/>
+          <a:ext cx="6521556" cy="3098784"/>
           <a:chOff x="2651067" y="553143"/>
           <a:chExt cx="6542690" cy="3115044"/>
         </a:xfrm>
@@ -19947,61 +20182,17 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188594</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>117550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>365745</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>212347</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A54771-9D86-4341-B05A-A46C1DDDC83D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8861947" y="3479315"/>
-          <a:ext cx="7576843" cy="4620292"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>20730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>859044</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28125</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -20017,7 +20208,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3755876" y="8107567"/>
+          <a:off x="3755876" y="7704155"/>
           <a:ext cx="1648946" cy="244624"/>
           <a:chOff x="3182471" y="8075855"/>
           <a:chExt cx="1650851" cy="229608"/>
@@ -20649,7 +20840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -20896,10 +21087,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F716D66-29DD-4818-92BA-22DFCDB2AE79}">
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -20910,21 +21101,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>45940</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="47" t="s">
         <v>560</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="49" t="s">
         <v>566</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="26" t="s">
         <v>567</v>
       </c>
     </row>
@@ -20933,240 +21124,287 @@
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="4:10">
-      <c r="D21" s="23" t="s">
+    <row r="19" spans="4:10">
+      <c r="D19" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E19" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="22" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H19" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I19" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J19" s="22" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="4:10">
-      <c r="D25" s="26">
+    <row r="23" spans="4:10">
+      <c r="D23" s="25">
         <v>45940</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E23" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F23" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="25" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D25" s="66" t="s">
+        <v>569</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="I25" s="61"/>
+      <c r="J25" s="62"/>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="30">
+        <v>10</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D27" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="21">
+        <v>15</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>591</v>
+      </c>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D28" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="21">
+        <v>40</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="21">
+        <v>30</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="I29" s="30">
+        <v>40</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="21">
+        <v>1</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="I30" s="21">
+        <v>10</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10">
+      <c r="D31" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="21">
+        <v>10</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="I31" s="21">
+        <v>25</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D32" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="21">
+        <v>20</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="I32" s="36">
+        <v>5</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D33" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="21">
+        <v>3</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>597</v>
+      </c>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="4:10" ht="18.600000000000001" thickBot="1">
+      <c r="D35" s="58" t="s">
+        <v>579</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="I39" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="18.600000000000001" thickBot="1"/>
-    <row r="27" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D27" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="51" t="s">
+      <c r="J39" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="4:10">
-      <c r="D28" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42">
-        <v>10</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>581</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10">
-      <c r="D29" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="21">
-        <v>15</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>582</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10">
-      <c r="D30" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="21">
-        <v>40</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>592</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="4:10">
-      <c r="D31" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="21">
-        <v>30</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10">
-      <c r="D32" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="21">
-        <v>1</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="21">
-        <v>10</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="D34" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="21">
-        <v>20</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>587</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="21">
-        <v>3</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="D36" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D37" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-    </row>
-    <row r="44" spans="4:10">
-      <c r="D44" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>559</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D36:E36"/>
+  <mergeCells count="18">
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="D25:G25"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H33:J33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21178,9 +21416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B58131-D9DD-431F-8B2A-BF3ADE3E3655}">
   <dimension ref="C2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -21208,7 +21444,7 @@
         <v>306</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -21233,11 +21469,11 @@
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>34.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <f>D7*12</f>
-        <v>410.40000000000003</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="3:5">
@@ -21253,7 +21489,7 @@
         <v>310</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="3:5">
@@ -21262,11 +21498,11 @@
       </c>
       <c r="D11">
         <f>D10*D9</f>
-        <v>2.3000000000000003</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="E11">
         <f>D11*12</f>
-        <v>27.6</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="12" spans="3:5">
@@ -21296,7 +21532,7 @@
       </c>
       <c r="E15">
         <f>SUM(E7:E13)</f>
-        <v>573</v>
+        <v>598.20000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -21309,8 +21545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4A7C1-689F-4704-A22D-73BAC15C2AC8}">
   <dimension ref="B2:G151"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -22048,8 +22284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F486C4D-EFA8-4CD6-8F00-B62FA22A8117}">
   <dimension ref="C2:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -23717,7 +23953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C5190-89F8-4312-8F7A-B6428DC7F9CB}">
   <dimension ref="B2:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>

--- a/it.xlsx
+++ b/it.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design22\Desktop\CPP\bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA40490-DB9D-4C2B-8A04-DDBE8720A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D77A05-19C0-4B66-B1FC-3151CF8F6417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="専門用語" sheetId="1" r:id="rId1"/>
@@ -16305,7 +16305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16339,6 +16339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16879,41 +16885,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -16959,6 +16938,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17725,8 +17731,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1975434" y="711216"/>
-          <a:ext cx="6521556" cy="3098784"/>
+          <a:off x="1971624" y="738110"/>
+          <a:ext cx="6565707" cy="3224290"/>
           <a:chOff x="2651067" y="553143"/>
           <a:chExt cx="6542690" cy="3115044"/>
         </a:xfrm>
@@ -20208,8 +20214,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3755876" y="7704155"/>
-          <a:ext cx="1648946" cy="244624"/>
+          <a:off x="3767418" y="7945530"/>
+          <a:ext cx="1654661" cy="240477"/>
           <a:chOff x="3182471" y="8075855"/>
           <a:chExt cx="1650851" cy="229608"/>
         </a:xfrm>
@@ -21089,8 +21095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F716D66-29DD-4818-92BA-22DFCDB2AE79}">
   <dimension ref="B2:J39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -21107,14 +21113,14 @@
       <c r="E2" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="62" t="s">
         <v>566</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="26" t="s">
         <v>567</v>
       </c>
@@ -21152,90 +21158,90 @@
       <c r="E23" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="60" t="s">
         <v>559</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="62" t="s">
         <v>566</v>
       </c>
-      <c r="I23" s="50"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="18.600000000000001" thickBot="1"/>
     <row r="25" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="57" t="s">
         <v>569</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="60" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="47" t="s">
         <v>570</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="30">
         <v>10</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="E27" s="55"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="21">
         <v>15</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="68" t="s">
         <v>590</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="44" t="s">
         <v>591</v>
       </c>
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="E28" s="55"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="21">
         <v>40</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="54" t="s">
         <v>592</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="E29" s="55"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="21">
         <v>30</v>
       </c>
@@ -21253,10 +21259,10 @@
       </c>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="E30" s="55"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="21">
         <v>1</v>
       </c>
@@ -21274,10 +21280,10 @@
       </c>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="E31" s="55"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="21">
         <v>10</v>
       </c>
@@ -21295,10 +21301,10 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="E32" s="55"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="21">
         <v>20</v>
       </c>
@@ -21316,27 +21322,27 @@
       </c>
     </row>
     <row r="33" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="45" t="s">
         <v>577</v>
       </c>
-      <c r="E33" s="55"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="21">
         <v>3</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="E34" s="55"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="21" t="s">
         <v>580</v>
       </c>
@@ -21348,10 +21354,10 @@
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="4:10" ht="18.600000000000001" thickBot="1">
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="49" t="s">
         <v>579</v>
       </c>
-      <c r="E35" s="59"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="37" t="s">
@@ -21387,6 +21393,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D35:E35"/>
@@ -21400,11 +21411,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H33:J33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21416,7 +21422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B58131-D9DD-431F-8B2A-BF3ADE3E3655}">
   <dimension ref="C2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -23953,7 +23959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C5190-89F8-4312-8F7A-B6428DC7F9CB}">
   <dimension ref="B2:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
